--- a/xlsx/nor_oda_assistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_assistancetype_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på type støtte, 2015-2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på type støtte. 2015-2024. Prosentfordeling.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_assistancetype_tenyear.xlsx
+++ b/xlsx/nor_oda_assistancetype_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på type støtte. 2015-2024. Prosentfordeling.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på type støtte. 2015-2024. Prosentandel.</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>75</t>
         </is>
       </c>
     </row>
